--- a/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
+++ b/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.424041379644111</v>
+        <v>0.575958620355889</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.920076732893933</v>
+        <v>0.07992326710606699</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.926380404066188</v>
+        <v>0.073619595933812</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.998288006532663</v>
+        <v>0.0017119934673369</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0019016061441201</v>
+        <v>5.74783929440104e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0157068062827225</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.267015706806283</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.023</v>
+        <v>1.255</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003334474885844</v>
+        <v>-0.100628351850221</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001671490381227</v>
+        <v>-0.154674960308539</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005286891984451</v>
+        <v>-0.0497048075251882</v>
       </c>
       <c r="N28" t="n">
-        <v>1.44977168949772</v>
+        <v>-8.018195366551501</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.995103290437365</v>
+        <v>0.055232687678427</v>
       </c>
       <c r="G29" t="n">
-        <v>0.53475935828877</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.363636363636364</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0073847028035223</v>
+        <v>8.44</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.060206043956044</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.128119372159408</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-0.713341753033697</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999999987444132</v>
+        <v>0.162553085083951</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.772727272727273</v>
+        <v>0.318840579710145</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.275</v>
+        <v>0.0245</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.172325191635524</v>
+        <v>0.0002217358934797</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.219517408937902</v>
+        <v>-0.0001662484858959</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.120817001732933</v>
+        <v>0.0005016163417237</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.52838307437272</v>
+        <v>0.905044463182643</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.999999999870307</v>
+        <v>0.9524615488214641</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.973821989528796</v>
+        <v>0.811594202898551</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.52</v>
+        <v>479.5</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.175047020271881</v>
+        <v>-9.835267603531429</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.227853968526479</v>
+        <v>-26.6543565416906</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.13517734051738</v>
+        <v>-0.6696524965859471</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.51950538430453</v>
+        <v>-2.0511506993809</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.006967881782392</v>
+        <v>0.430128227058381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.602941176470588</v>
       </c>
       <c r="H32" t="n">
-        <v>0.49171270718232</v>
+        <v>0.360294117647059</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>0.051</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.000824574788978</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003507532314281</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0013434005517502</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61681331172165</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0747545032202431</v>
+        <v>0.9922225659598209</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.905263157894737</v>
+        <v>0.845528455284553</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.035</v>
+        <v>10.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0345261194029851</v>
+        <v>-0.104061826874451</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0046002265181057</v>
+        <v>-0.189241908679648</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0714682340789443</v>
+        <v>-0.0352900254257837</v>
       </c>
       <c r="N33" t="n">
-        <v>1.13759866237183</v>
+        <v>-0.963535434022691</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.40324797025367</v>
+        <v>0.001738867827324</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.107</v>
+        <v>6.42</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0041178964924346</v>
+        <v>-0.0190135346173868</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0276740748265223</v>
+        <v>-0.0319262482941401</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0116650388114358</v>
+        <v>-0.007931217204904801</v>
       </c>
       <c r="N34" t="n">
-        <v>-3.84850139479875</v>
+        <v>-0.296160975348704</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.40324797025367</v>
+        <v>0.999981962604193</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9710144927536229</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>63.53</v>
+        <v>11.303</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.26263518698061</v>
+        <v>-0.154385024927679</v>
       </c>
       <c r="L35" t="n">
-        <v>-13.8651642541074</v>
+        <v>-0.218358013251037</v>
       </c>
       <c r="M35" t="n">
-        <v>4.71606168413804</v>
+        <v>-0.0928368837324145</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.98746291040549</v>
+        <v>-1.36587653656267</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3626,7 +3626,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3636,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3651,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.59675202974633</v>
+        <v>0.999982243178098</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.768115942028985</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.527</v>
+        <v>11.2</v>
       </c>
       <c r="K36" t="n">
-        <v>0.190901320495186</v>
+        <v>-0.185515130628856</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.356946238134565</v>
+        <v>-0.25712959730197</v>
       </c>
       <c r="M36" t="n">
-        <v>0.497787317213284</v>
+        <v>-0.10408886277167</v>
       </c>
       <c r="N36" t="n">
-        <v>5.41256933641014</v>
+        <v>-1.6563850949005</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3684,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3713,7 +3717,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3738,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.232172258891185</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.105</v>
+        <v>0.0535</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002484693877551</v>
+        <v>0.0002684883948152</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0048960641867474</v>
+        <v>-0.0004958241371089</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0038938351121562</v>
+        <v>0.0010608858016909</v>
       </c>
       <c r="N37" t="n">
-        <v>0.236637512147716</v>
+        <v>0.501847466944478</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3800,7 +3808,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3825,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0.441331269713004</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.978102189781022</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>62.765</v>
+        <v>3.33</v>
       </c>
       <c r="K38" t="n">
-        <v>0.248469387755102</v>
+        <v>0.007944535073409399</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.21627905854216</v>
+        <v>-0.06561562269927861</v>
       </c>
       <c r="M38" t="n">
-        <v>1.89482138266565</v>
+        <v>0.078567718685823</v>
       </c>
       <c r="N38" t="n">
-        <v>0.395872520919465</v>
+        <v>0.238574626829113</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3887,7 +3899,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3897,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3912,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.0019016061441201</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0157068062827225</v>
       </c>
       <c r="H39" t="n">
+        <v>0.267015706806283</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>3.5435</v>
+        <v>0.023</v>
       </c>
       <c r="K39" t="n">
-        <v>0.010838278931751</v>
+        <v>0.0003334474885844</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0399237439496929</v>
+        <v>0.0001671490381227</v>
       </c>
       <c r="M39" t="n">
-        <v>0.10893112130308</v>
+        <v>0.0005286891984451</v>
       </c>
       <c r="N39" t="n">
-        <v>0.305863663941047</v>
+        <v>1.44977168949772</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3945,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3974,7 +3990,1075 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.995103290437365</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.53475935828877</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0073847028035223</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.999999987444132</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.772727272727273</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.275</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.172325191635524</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.219517408937902</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.120817001732933</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.52838307437272</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.999999999870307</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.973821989528796</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.175047020271881</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.227853968526479</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.13517734051738</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.51950538430453</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.006967881782392</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0552486187845304</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.49171270718232</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.000824574788978</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0003507532314281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0013434005517502</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.61681331172165</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0747545032202431</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.905263157894737</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0345261194029851</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0046002265181057</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0714682340789443</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.13759866237183</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0041178964924346</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0276740748265223</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0116650388114358</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-3.84850139479875</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>63.53</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.26263518698061</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-13.8651642541074</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4.71606168413804</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.98746291040549</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.527</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.190901320495186</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.356946238134565</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.497787317213284</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.41256933641014</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0002484693877551</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0048960641867474</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0038938351121562</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.236637512147716</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>62.765</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.248469387755102</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.21627905854216</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.89482138266565</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.395872520919465</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.5435</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.010838278931751</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0399237439496929</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.10893112130308</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.305863663941047</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.39199022689119</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>65.265</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.331342606592077</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-1.08341386469441</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.463066360188174</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.507688051163836</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
+++ b/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.772638073673422</v>
+        <v>0.008610487749038999</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.96</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0727376235381578</v>
+        <v>-0.190167805391951</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0757992416579225</v>
+        <v>-0.343883307475745</v>
       </c>
       <c r="M2" t="n">
-        <v>0.222422151583237</v>
+        <v>-0.0592378717869469</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7609865856417</v>
+        <v>-39.6182927899899</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.575958620355889</v>
+        <v>0.0618890048863751</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9375</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.59</v>
+        <v>7.435</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07111553714061231</v>
+        <v>-0.200686813186813</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.272783710610115</v>
+        <v>-0.500422568378995</v>
       </c>
       <c r="M3" t="n">
-        <v>0.508634706421066</v>
+        <v>-0.0118397618952363</v>
       </c>
       <c r="N3" t="n">
-        <v>0.936963598690544</v>
+        <v>-2.69921739323219</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.07463372596986199</v>
+        <v>0.0129536186683651</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.541666666666667</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0245</v>
+        <v>0.022</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001944544565587</v>
+        <v>0.0026636280765724</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0008402366398432</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0043180683499756</v>
+        <v>0.0048777941419668</v>
       </c>
       <c r="N4" t="n">
-        <v>7.93691659423303</v>
+        <v>12.1074003480567</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.717251466005867</v>
+        <v>0.792412815225256</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.833333333333333</v>
+        <v>0.86</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>232.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-9.510495692426391</v>
+        <v>-17.6571132596685</v>
       </c>
       <c r="L5" t="n">
-        <v>-51.3557992422336</v>
+        <v>-54.3711456783249</v>
       </c>
       <c r="M5" t="n">
-        <v>25.0335535785844</v>
+        <v>16.2509679489849</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.06790183626658</v>
+        <v>-7.59445731598646</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.276653923656233</v>
+        <v>0.488500905958214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.604166666666667</v>
+        <v>0.551020408163265</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4375</v>
+        <v>0.408163265306122</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0051223776223776</v>
+        <v>0.005</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0380652729718411</v>
+        <v>0.772167454303328</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.520833333333333</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0175</v>
+        <v>0.015</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008116122775234</v>
+        <v>-0.0005030991735537</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0015689758901153</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0019583993673199</v>
+        <v>0.0001587943094219</v>
       </c>
       <c r="N7" t="n">
-        <v>4.63778444299106</v>
+        <v>-3.35399449035812</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.43642746248096</v>
+        <v>0.641935215572217</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.3</v>
+        <v>9.94</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0414743684060844</v>
+        <v>-0.0624572503419973</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.358082920593768</v>
+        <v>-0.475957766072685</v>
       </c>
       <c r="M8" t="n">
-        <v>0.384449829155199</v>
+        <v>0.20280668965146</v>
       </c>
       <c r="N8" t="n">
-        <v>0.402663770932859</v>
+        <v>-0.628342558772608</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07992326710606699</v>
+        <v>0.114049421274002</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.708333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.315</v>
+        <v>6.29</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0282077756350678</v>
+        <v>-0.024415106951872</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0614698572431309</v>
+        <v>-0.0577096310804679</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0025507999329889</v>
+        <v>0.0093390151686024</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.446678949090543</v>
+        <v>-0.388157503209412</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.357776063485312</v>
+        <v>0.705746822364145</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.374</v>
+        <v>10.003</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09257046010458821</v>
+        <v>-0.07854838709677429</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.303788852556053</v>
+        <v>-0.50311097915456</v>
       </c>
       <c r="M10" t="n">
-        <v>0.407644892307803</v>
+        <v>0.188606663123138</v>
       </c>
       <c r="N10" t="n">
-        <v>0.892331406444845</v>
+        <v>-0.785248296478799</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.982176482295692</v>
+        <v>0.427862707660036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0869565217391304</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.369565217391304</v>
+        <v>0.82</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.701953875720692</v>
+        <v>0.0024982900136798</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.43148333013983</v>
+        <v>-0.432790815003916</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.214192176577128</v>
       </c>
       <c r="N11" t="n">
-        <v>-17.5488468930173</v>
+        <v>0.0251084423485411</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4787242719567</v>
+        <v>0.0415836823032655</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.833333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.35</v>
+        <v>0.0515</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.00570703125</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.33513791583767</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.293346753255118</v>
+        <v>0.0120108126044986</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>11.0816140776699</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6908085938305339</v>
+        <v>0.267414565812342</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.75</v>
+        <v>0.979591836734694</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0495</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0012792317331791</v>
+        <v>0.177960370150582</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0060171847991536</v>
+        <v>-0.247003616727478</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003462845104575</v>
+        <v>0.96379378317079</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.58430653167495</v>
+        <v>6.84462962117625</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9907860356495229</v>
+        <v>3.18152815981243e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.978723404255319</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.19</v>
+        <v>0.82</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.644558823529412</v>
+        <v>-0.26610725624806</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.14549386555839</v>
+        <v>-0.41035658122854</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.190685204099263</v>
+        <v>-0.159527217624291</v>
       </c>
       <c r="N14" t="n">
-        <v>-20.2056057532731</v>
+        <v>-32.4521044204951</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45917557043052e-07</v>
+        <v>0.004203629520513</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0434782608695652</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.797101449275362</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.404011906982265</v>
+        <v>-0.183764625585023</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.529340720923386</v>
+        <v>-0.352754834399591</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.259650646392055</v>
+        <v>-0.0600328983122088</v>
       </c>
       <c r="N15" t="n">
-        <v>-32.3209525585812</v>
+        <v>-2.26311115252492</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.073619595933812</v>
+        <v>0.475512420010799</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.882352941176471</v>
+        <v>0.367924528301887</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.140000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0876281400946775</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.235694225379403</v>
+        <v>-0.0005512780180068</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002658597873228</v>
+        <v>0.0006342381993558</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.07651277757589</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.239180827100876</v>
+        <v>0.999999694518276</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.372549019607843</v>
+        <v>0.80188679245283</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0245</v>
+        <v>392</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00033182128523</v>
+        <v>-54.4658512720157</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0004972920132177</v>
+        <v>-79.6991307788102</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009159211890998</v>
+        <v>-32.3351584152225</v>
       </c>
       <c r="N17" t="n">
-        <v>1.35437259277574</v>
+        <v>-13.8943498142897</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.999926066370657</v>
+        <v>0.207026884684918</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.596153846153846</v>
       </c>
       <c r="H18" t="n">
-        <v>0.784313725490196</v>
+        <v>0.355769230769231</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>460.5</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-57.2599740715959</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-97.36222823953329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-29.2995896267894</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-12.4343049015409</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,43 +2101,43 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0358005675981122</v>
+        <v>0.622075016993253</v>
       </c>
       <c r="G19" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.33</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0004277578424679</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0001646870381411</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5388915879031581</v>
+        <v>0.920469486397826</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.362745098039216</v>
+        <v>0.80188679245283</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0175</v>
+        <v>10.45</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.07598057729941279</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.000495426390346</v>
+        <v>-0.159926555121462</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003313868233822</v>
+        <v>0.0046102351630844</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-0.727086864109214</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.563903035063871</v>
+        <v>1.39906485729924e-05</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.823529411764706</v>
+        <v>0.584905660377358</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.5</v>
+        <v>6.37</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0179198993274996</v>
+        <v>-0.0393126223091976</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.112443969427523</v>
+        <v>-0.0539778325123152</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0735576097675943</v>
+        <v>-0.0237662736815771</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.170665707880949</v>
+        <v>-0.6171526265180159</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0017119934673369</v>
+        <v>0.933111896591706</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.594059405940594</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.38</v>
+        <v>10.5025</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0277716046294443</v>
+        <v>-0.0763379647749509</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0448569692485818</v>
+        <v>-0.154368173690572</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0114406806993353</v>
+        <v>0.0031312043728015</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.43529160861198</v>
+        <v>-0.726855175195914</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5764997590893201</v>
+        <v>0.911214721029231</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.96078431372549</v>
+        <v>0.764150943396226</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10.5185</v>
+        <v>10.505</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0246300483535806</v>
+        <v>-0.0989167230873393</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.11205439550245</v>
+        <v>-0.177314109153589</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07665861212597549</v>
+        <v>0.0055864637137369</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.234159322656088</v>
+        <v>-0.941615641002754</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.880975070260501</v>
+        <v>0.230830903134821</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.29</v>
+        <v>0.688679245283019</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0.054</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0906052754885477</v>
+        <v>0.0007494870041039</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.37222311013679</v>
+        <v>-0.0008176701303983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0024882498909038</v>
       </c>
       <c r="N24" t="n">
-        <v>-2.26513188721369</v>
+        <v>1.38793889648883</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.601614827582469</v>
+        <v>0.238002406481753</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.784313725490196</v>
+        <v>0.980952380952381</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.7</v>
+        <v>3.36</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0249740897767557</v>
+        <v>0.0632611668185962</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.149273933214176</v>
+        <v>-0.09389083061605701</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0684203936829036</v>
+        <v>0.171405488559215</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.233402708193978</v>
+        <v>1.88277282198203</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.229180085597759</v>
+        <v>1.41933777697556e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H26" t="n">
-        <v>0.637254901960784</v>
+        <v>0.683673469387755</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.053</v>
+        <v>1.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004491548527808</v>
+        <v>-0.09925271739130451</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0007352684764182</v>
+        <v>-0.143008367971835</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0017844964955576</v>
+        <v>-0.0582517345891404</v>
       </c>
       <c r="N26" t="n">
-        <v>0.847461986378882</v>
+        <v>-8.271059782608701</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.236553269926813</v>
+        <v>0.011180236827664</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.98019801980198</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>8.24</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0638166879830951</v>
+        <v>-0.0778001762614705</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0931858468215928</v>
+        <v>-0.156160863514898</v>
       </c>
       <c r="M27" t="n">
-        <v>0.163141925394071</v>
+        <v>-0.0149047287310152</v>
       </c>
       <c r="N27" t="n">
-        <v>1.99427149947172</v>
+        <v>-0.944176896377069</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.74783929440104e-05</v>
+        <v>0.508276050851193</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0520833333333333</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.666666666666667</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.255</v>
+        <v>0.024</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.100628351850221</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.154674960308539</v>
+        <v>-0.0003973681992212</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0497048075251882</v>
+        <v>0.0003219163712053</v>
       </c>
       <c r="N28" t="n">
-        <v>-8.018195366551501</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.055232687678427</v>
+        <v>0.999993004463138</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.898550724637681</v>
+        <v>0.820143884892086</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>8.44</v>
+        <v>435</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.060206043956044</v>
+        <v>-32.4392553880894</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.128119372159408</v>
+        <v>-51.6788901850293</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-17.9029649288568</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.713341753033697</v>
+        <v>-7.45730008921596</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.162553085083951</v>
+        <v>0.210478750094406</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.610294117647059</v>
       </c>
       <c r="H30" t="n">
-        <v>0.318840579710145</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0245</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0002217358934797</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0001662484858959</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0005016163417237</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.905044463182643</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9524615488214641</v>
+        <v>0.89530330946814</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H31" t="n">
-        <v>0.811594202898551</v>
+        <v>0.310606060606061</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>479.5</v>
+        <v>0.0155</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.835267603531429</v>
+        <v>-0.0002490623934538</v>
       </c>
       <c r="L31" t="n">
-        <v>-26.6543565416906</v>
+        <v>-0.0005746255043988</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.6696524965859471</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.0511506993809</v>
+        <v>-1.60685415131485</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.430128227058381</v>
+        <v>0.999771992658738</v>
       </c>
       <c r="G32" t="n">
-        <v>0.602941176470588</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.360294117647059</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>10.5751</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.140095890410959</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.200311495693007</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.074209816349873</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.32477130628513</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9922225659598209</v>
+        <v>0.004108746872128</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.845528455284553</v>
+        <v>0.532374100719424</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>10.8</v>
+        <v>6.37</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.104061826874451</v>
+        <v>-0.0143686073957515</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.189241908679648</v>
+        <v>-0.0252721658822468</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0352900254257837</v>
+        <v>-0.0056353232243188</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.963535434022691</v>
+        <v>-0.225566835098139</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,14 +3458,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.001738867827324</v>
+        <v>0.999993004463138</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.572463768115942</v>
+        <v>0.971223021582734</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.42</v>
+        <v>10.834</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0190135346173868</v>
+        <v>-0.167862894814724</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0319262482941401</v>
+        <v>-0.224909731120368</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.007931217204904801</v>
+        <v>-0.105430784175879</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.296160975348704</v>
+        <v>-1.54940829624076</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3539,7 +3535,11 @@
           <t>Hoki_1a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999981962604193</v>
+        <v>0.999998703578735</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9710144927536229</v>
+        <v>0.776978417266187</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.303</v>
+        <v>10.9</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.154385024927679</v>
+        <v>-0.200372533950999</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.218358013251037</v>
+        <v>-0.26765056742452</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0928368837324145</v>
+        <v>-0.149267620358234</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.36587653656267</v>
+        <v>-1.83828012799081</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999982243178098</v>
+        <v>0.316791322539459</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.768115942028985</v>
+        <v>0.58273381294964</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.2</v>
+        <v>0.055</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.185515130628856</v>
+        <v>0.0001660990851968</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.25712959730197</v>
+        <v>-0.0006701175869123</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.10408886277167</v>
+        <v>0.0010377885002636</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.6563850949005</v>
+        <v>0.301998336721605</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.232172258891185</v>
+        <v>0.475002744798745</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.557971014492754</v>
+        <v>0.9710144927536229</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0535</v>
+        <v>3.475</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0002684883948152</v>
+        <v>0.007944535073409399</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0004958241371089</v>
+        <v>-0.0856998749940264</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0010608858016909</v>
+        <v>0.0967855274134089</v>
       </c>
       <c r="N37" t="n">
-        <v>0.501847466944478</v>
+        <v>0.228619714342719</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.441331269713004</v>
+        <v>0.0025627511565648</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0102564102564103</v>
       </c>
       <c r="H38" t="n">
-        <v>0.978102189781022</v>
+        <v>0.261538461538462</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.33</v>
+        <v>0.023</v>
       </c>
       <c r="K38" t="n">
-        <v>0.007944535073409399</v>
+        <v>0.0003302441229656</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.06561562269927861</v>
+        <v>0.0001428128932271</v>
       </c>
       <c r="M38" t="n">
-        <v>0.078567718685823</v>
+        <v>0.0005009441915757999</v>
       </c>
       <c r="N38" t="n">
-        <v>0.238574626829113</v>
+        <v>1.4358440128941</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.0019016061441201</v>
+        <v>0.603852156317384</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0157068062827225</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.267015706806283</v>
+        <v>0.7814207650273221</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.023</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0003334474885844</v>
+        <v>-1.06443434166812</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0001671490381227</v>
+        <v>-8.795359006573531</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0005286891984451</v>
+        <v>3.89461828555506</v>
       </c>
       <c r="N39" t="n">
-        <v>1.44977168949772</v>
+        <v>-0.266108585417031</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.995103290437365</v>
+        <v>0.995821867606726</v>
       </c>
       <c r="G40" t="n">
-        <v>0.53475935828877</v>
+        <v>0.542105263157895</v>
       </c>
       <c r="H40" t="n">
-        <v>0.363636363636364</v>
+        <v>0.352631578947368</v>
       </c>
       <c r="I40" t="n">
         <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0073847028035223</v>
+        <v>0.0051223776223776</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.999999987444132</v>
+        <v>0.99999999991906</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.772727272727273</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.275</v>
+        <v>11.1935</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.172325191635524</v>
+        <v>-0.180990662438907</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.219517408937902</v>
+        <v>-0.232331996051723</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.120817001732933</v>
+        <v>-0.135730740285818</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.52838307437272</v>
+        <v>-1.61692645230631</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.999999999870307</v>
+        <v>0.999999999999846</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.973821989528796</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.52</v>
+        <v>11.332</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.175047020271881</v>
+        <v>-0.18997198275862</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.227853968526479</v>
+        <v>-0.246070179319772</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.13517734051738</v>
+        <v>-0.155347519093339</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.51950538430453</v>
+        <v>-1.67642060323526</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.006967881782392</v>
+        <v>0.0074214439641755</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0552486187845304</v>
+        <v>0.0486486486486487</v>
       </c>
       <c r="H43" t="n">
-        <v>0.49171270718232</v>
+        <v>0.502702702702703</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="K43" t="n">
-        <v>0.000824574788978</v>
+        <v>0.0008958969518742</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0003507532314281</v>
+        <v>0.0003723969435432</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0013434005517502</v>
+        <v>0.0015520882081387</v>
       </c>
       <c r="N43" t="n">
-        <v>1.61681331172165</v>
+        <v>1.69037160730987</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0747545032202431</v>
+        <v>0.0866948892468105</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.905263157894737</v>
+        <v>0.907216494845361</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.035</v>
+        <v>3.195</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0345261194029851</v>
+        <v>0.0396932259538497</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0046002265181057</v>
+        <v>-0.0069145568653859</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0714682340789443</v>
+        <v>0.07754311825446709</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13759866237183</v>
+        <v>1.24235448994835</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4486,19 +4486,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.107</v>
+        <v>0.12</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0041178964924346</v>
+        <v>0.0011631767396858</v>
       </c>
       <c r="L45" t="n">
         <v>-0.0276740748265223</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0116650388114358</v>
+        <v>0.0172694960069751</v>
       </c>
       <c r="N45" t="n">
-        <v>-3.84850139479875</v>
+        <v>0.9693139497382059</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.40324797025367</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4573,19 +4573,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>63.53</v>
+        <v>70.67</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.26263518698061</v>
+        <v>0.559673922639789</v>
       </c>
       <c r="L46" t="n">
         <v>-13.8651642541074</v>
       </c>
       <c r="M46" t="n">
-        <v>4.71606168413804</v>
+        <v>8.722915946241709</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.98746291040549</v>
+        <v>0.791954043639152</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.59675202974633</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4663,16 +4663,16 @@
         <v>3.527</v>
       </c>
       <c r="K47" t="n">
-        <v>0.190901320495186</v>
+        <v>-0.133474575025118</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.356946238134565</v>
+        <v>-0.773088606879072</v>
       </c>
       <c r="M47" t="n">
-        <v>0.497787317213284</v>
+        <v>0.11047384658211</v>
       </c>
       <c r="N47" t="n">
-        <v>5.41256933641014</v>
+        <v>-3.78436560887776</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4747,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.105</v>
+        <v>0.111</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0002484693877551</v>
+        <v>0.0009838383838383</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0048960641867474</v>
+        <v>-0.0039113084042586</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0038938351121562</v>
+        <v>0.0043236449167366</v>
       </c>
       <c r="N48" t="n">
-        <v>0.236637512147716</v>
+        <v>0.886340886340887</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.5</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4834,19 +4834,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>62.765</v>
+        <v>66.265</v>
       </c>
       <c r="K49" t="n">
-        <v>0.248469387755102</v>
+        <v>0.368939393939394</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.21627905854216</v>
+        <v>-1.84941716329183</v>
       </c>
       <c r="M49" t="n">
-        <v>1.89482138266565</v>
+        <v>2.18355411927556</v>
       </c>
       <c r="N49" t="n">
-        <v>0.395872520919465</v>
+        <v>0.556763591548169</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4924,16 +4924,16 @@
         <v>3.5435</v>
       </c>
       <c r="K50" t="n">
-        <v>0.010838278931751</v>
+        <v>-0.0284083333333333</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0399237439496929</v>
+        <v>-0.09979287094810731</v>
       </c>
       <c r="M50" t="n">
-        <v>0.10893112130308</v>
+        <v>0.0401458973891767</v>
       </c>
       <c r="N50" t="n">
-        <v>0.305863663941047</v>
+        <v>-0.801702648041014</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4992,11 +4992,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.39199022689119</v>
+        <v>0.5</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5008,19 +5008,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>65.265</v>
+        <v>0.111</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.331342606592077</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.08341386469441</v>
+        <v>-0.0026516186589428</v>
       </c>
       <c r="M51" t="n">
-        <v>0.463066360188174</v>
+        <v>0.0025632715541077</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.507688051163836</v>
+        <v>0</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5059,6 +5059,180 @@
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.597831965806486</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>67</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.248469387755102</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.892604832772823</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.722406201496954</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.370849832470302</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.114219904494338</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.5435</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0226694389275074</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.04519996117544</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.014095650637463</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.639747112389091</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
+++ b/trend_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -148,34 +148,37 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,13 +660,13 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.008610487749038999</v>
+        <v>0.002694723593612</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.958333333333333</v>
+        <v>0.88</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -672,16 +675,16 @@
         <v>0.48</v>
       </c>
       <c r="K2">
-        <v>-0.190167805391951</v>
+        <v>-0.179401123415882</v>
       </c>
       <c r="L2">
-        <v>-0.343883307475745</v>
+        <v>-0.264837625114706</v>
       </c>
       <c r="M2">
-        <v>-0.0592378717869469</v>
+        <v>-0.0861336329765809</v>
       </c>
       <c r="N2">
-        <v>-39.6182927899899</v>
+        <v>-37.3752340449754</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -696,19 +699,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,31 +731,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.0618890048863751</v>
+        <v>0.441232841643137</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9399999999999999</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.435</v>
+        <v>7.5</v>
       </c>
       <c r="K3">
-        <v>-0.200686813186813</v>
+        <v>-0.0307576688017862</v>
       </c>
       <c r="L3">
-        <v>-0.500422568378995</v>
+        <v>-0.236596587783787</v>
       </c>
       <c r="M3">
-        <v>-0.0118397618952363</v>
+        <v>0.223480446507088</v>
       </c>
       <c r="N3">
-        <v>-2.69921739323219</v>
+        <v>-0.410102250690483</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -767,19 +770,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,31 +802,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.0129536186683651</v>
+        <v>0.0165885889979312</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5600000000000001</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="K4">
-        <v>0.0026636280765724</v>
+        <v>0.0016305803571428</v>
       </c>
       <c r="L4">
-        <v>0.0008402366398432</v>
+        <v>0.0003164396475601</v>
       </c>
       <c r="M4">
-        <v>0.0048777941419668</v>
+        <v>0.0030272863495031</v>
       </c>
       <c r="N4">
-        <v>12.1074003480567</v>
+        <v>7.76466836734694</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -838,19 +841,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,31 +873,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.792412815225256</v>
+        <v>0.980765377456021</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>232.5</v>
+        <v>173.2</v>
       </c>
       <c r="K5">
-        <v>-17.6571132596685</v>
+        <v>-25.8373138777436</v>
       </c>
       <c r="L5">
-        <v>-54.3711456783249</v>
+        <v>-58.0561354131672</v>
       </c>
       <c r="M5">
-        <v>16.2509679489849</v>
+        <v>-8.03358165880597</v>
       </c>
       <c r="N5">
-        <v>-7.59445731598646</v>
+        <v>-14.9176177123231</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -909,19 +912,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,13 +944,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.488500905958214</v>
+        <v>0.397451175677953</v>
       </c>
       <c r="G6">
-        <v>0.551020408163265</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="H6">
-        <v>0.408163265306122</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -980,19 +983,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,37 +1015,37 @@
         <v>39</v>
       </c>
       <c r="F7">
-        <v>0.772167454303328</v>
+        <v>0.836435188382423</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.46</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.015</v>
+        <v>0.0145</v>
       </c>
       <c r="K7">
-        <v>-0.0005030991735537</v>
+        <v>-0.0005048436228378</v>
       </c>
       <c r="L7">
-        <v>-0.0015689758901153</v>
+        <v>-0.0013401052843774</v>
       </c>
       <c r="M7">
-        <v>0.0001587943094219</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-3.35399449035812</v>
+        <v>-3.48168015750266</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1790083.556</v>
@@ -1051,19 +1054,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,43 +1080,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.641935215572217</v>
+        <v>0.9999912161860059</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.9</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.94</v>
+        <v>9.375</v>
       </c>
       <c r="K8">
-        <v>-0.0624572503419973</v>
+        <v>-0.9229925187032419</v>
       </c>
       <c r="L8">
-        <v>-0.475957766072685</v>
+        <v>-1.19461862540629</v>
       </c>
       <c r="M8">
-        <v>0.20280668965146</v>
+        <v>-0.639121148004634</v>
       </c>
       <c r="N8">
-        <v>-0.628342558772608</v>
+        <v>-9.84525353283458</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1790083.556</v>
@@ -1122,19 +1125,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,16 +1154,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>0.114049421274002</v>
+        <v>0.447935941983106</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.72</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1169,22 +1172,22 @@
         <v>6.29</v>
       </c>
       <c r="K9">
-        <v>-0.024415106951872</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.0577096310804679</v>
+        <v>-0.0305329247182468</v>
       </c>
       <c r="M9">
-        <v>0.0093390151686024</v>
+        <v>0.0307538951866979</v>
       </c>
       <c r="N9">
-        <v>-0.388157503209412</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q9">
         <v>1790083.556</v>
@@ -1193,16 +1196,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.705746822364145</v>
+        <v>0.999988107545096</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1234,25 +1237,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.003</v>
+        <v>9.394500000000001</v>
       </c>
       <c r="K10">
-        <v>-0.07854838709677429</v>
+        <v>-0.905422012302285</v>
       </c>
       <c r="L10">
-        <v>-0.50311097915456</v>
+        <v>-1.18084586994291</v>
       </c>
       <c r="M10">
-        <v>0.188606663123138</v>
+        <v>-0.591853684778616</v>
       </c>
       <c r="N10">
-        <v>-0.785248296478799</v>
+        <v>-9.63778819843829</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1790083.556</v>
@@ -1261,19 +1264,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,43 +1290,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.427862707660036</v>
+        <v>0.999973981149415</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.82</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.949999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K11">
-        <v>0.0024982900136798</v>
+        <v>-0.771443950786056</v>
       </c>
       <c r="L11">
-        <v>-0.432790815003916</v>
+        <v>-1.05905088272207</v>
       </c>
       <c r="M11">
-        <v>0.214192176577128</v>
+        <v>-0.494587835975695</v>
       </c>
       <c r="N11">
-        <v>0.0251084423485411</v>
+        <v>-8.206850540277189</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1790083.556</v>
@@ -1332,19 +1335,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,43 +1361,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0415836823032655</v>
+        <v>0.118453321391658</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.76</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0515</v>
+        <v>0.0495</v>
       </c>
       <c r="K12">
-        <v>0.00570703125</v>
+        <v>0.0026239666086517</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0010741817104368</v>
       </c>
       <c r="M12">
-        <v>0.0120108126044986</v>
+        <v>0.0061462961862449</v>
       </c>
       <c r="N12">
-        <v>11.0816140776699</v>
+        <v>5.30094264374083</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1790083.556</v>
@@ -1403,19 +1406,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,19 +1432,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.267414565812342</v>
+        <v>0.61881559076508</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.979591836734694</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1450,22 +1453,22 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>0.177960370150582</v>
+        <v>-0.0322212865865798</v>
       </c>
       <c r="L13">
-        <v>-0.247003616727478</v>
+        <v>-0.246281858160518</v>
       </c>
       <c r="M13">
-        <v>0.96379378317079</v>
+        <v>0.402897898380059</v>
       </c>
       <c r="N13">
-        <v>6.84462962117625</v>
+        <v>-1.23928025332999</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1790083.556</v>
@@ -1474,19 +1477,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,31 +1509,31 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>3.18152815981243E-07</v>
+        <v>1.21477416450411E-05</v>
       </c>
       <c r="G14">
-        <v>0.0416666666666667</v>
+        <v>0.0147058823529412</v>
       </c>
       <c r="H14">
-        <v>0.791666666666667</v>
+        <v>0.8088235294117651</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.82</v>
+        <v>0.635</v>
       </c>
       <c r="K14">
-        <v>-0.26610725624806</v>
+        <v>-0.155006440804525</v>
       </c>
       <c r="L14">
-        <v>-0.41035658122854</v>
+        <v>-0.244567803381671</v>
       </c>
       <c r="M14">
-        <v>-0.159527217624291</v>
+        <v>-0.0989432538232059</v>
       </c>
       <c r="N14">
-        <v>-32.4521044204951</v>
+        <v>-24.4104631188228</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
@@ -1545,19 +1548,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1580,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.004203629520513</v>
+        <v>0.020792071666547</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.886792452830189</v>
+        <v>0.898148148148148</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.119999999999999</v>
+        <v>7.86</v>
       </c>
       <c r="K15">
-        <v>-0.183764625585023</v>
+        <v>-0.09997077001284239</v>
       </c>
       <c r="L15">
-        <v>-0.352754834399591</v>
+        <v>-0.2336305084865</v>
       </c>
       <c r="M15">
-        <v>-0.0600328983122088</v>
+        <v>-0.0175670166286098</v>
       </c>
       <c r="N15">
-        <v>-2.26311115252492</v>
+        <v>-1.27189274825499</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1790083.556</v>
@@ -1616,19 +1619,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,28 +1651,28 @@
         <v>41</v>
       </c>
       <c r="F16">
-        <v>0.475512420010799</v>
+        <v>0.476011838287105</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.367924528301887</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0005512780180068</v>
+        <v>-0.0004977690396457</v>
       </c>
       <c r="M16">
-        <v>0.0006342381993558</v>
+        <v>0.0004960470287154</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1687,19 +1690,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1722,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.999999694518276</v>
+        <v>0.999999999493957</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0092592592592592</v>
       </c>
       <c r="H17">
-        <v>0.80188679245283</v>
+        <v>0.787037037037037</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="K17">
-        <v>-54.4658512720157</v>
+        <v>-63.5820074186514</v>
       </c>
       <c r="L17">
-        <v>-79.6991307788102</v>
+        <v>-89.9412672476663</v>
       </c>
       <c r="M17">
-        <v>-32.3351584152225</v>
+        <v>-46.5461321174406</v>
       </c>
       <c r="N17">
-        <v>-13.8943498142897</v>
+        <v>-18.7005904172504</v>
       </c>
       <c r="O17" t="s">
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1790083.556</v>
@@ -1758,19 +1761,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1793,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.207026884684918</v>
+        <v>0.404520157710581</v>
       </c>
       <c r="G18">
-        <v>0.596153846153846</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H18">
-        <v>0.355769230769231</v>
+        <v>0.361904761904762</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1820,7 +1823,7 @@
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1790083.556</v>
@@ -1829,19 +1832,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,13 +1864,13 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.622075016993253</v>
+        <v>0.776379394891612</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.330188679245283</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1879,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0004277578424679</v>
+        <v>-0.0004970641209073999</v>
       </c>
       <c r="M19">
-        <v>0.0001646870381411</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1891,7 +1894,7 @@
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1790083.556</v>
@@ -1900,19 +1903,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,37 +1935,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.920469486397826</v>
+        <v>0.9991694865476189</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.80188679245283</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.45</v>
+        <v>9.945</v>
       </c>
       <c r="K20">
-        <v>-0.07598057729941279</v>
+        <v>-0.220079392781466</v>
       </c>
       <c r="L20">
-        <v>-0.159926555121462</v>
+        <v>-0.346295738339005</v>
       </c>
       <c r="M20">
-        <v>0.0046102351630844</v>
+        <v>-0.112819518209032</v>
       </c>
       <c r="N20">
-        <v>-0.727086864109214</v>
+        <v>-2.21296523661605</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1790083.556</v>
@@ -1971,19 +1974,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,13 +2006,13 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>1.39906485729924E-05</v>
+        <v>9.585381755794491E-05</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.584905660377358</v>
+        <v>0.560747663551402</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2018,22 +2021,22 @@
         <v>6.37</v>
       </c>
       <c r="K21">
-        <v>-0.0393126223091976</v>
+        <v>-0.0322872928176792</v>
       </c>
       <c r="L21">
-        <v>-0.0539778325123152</v>
+        <v>-0.047009377282635</v>
       </c>
       <c r="M21">
-        <v>-0.0237662736815771</v>
+        <v>-0.0174349451773544</v>
       </c>
       <c r="N21">
-        <v>-0.6171526265180159</v>
+        <v>-0.506864879398418</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1790083.556</v>
@@ -2042,16 +2045,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2074,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.933111896591706</v>
+        <v>0.999317626780275</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.962264150943396</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.5025</v>
+        <v>10.004</v>
       </c>
       <c r="K22">
-        <v>-0.0763379647749509</v>
+        <v>-0.216497989724629</v>
       </c>
       <c r="L22">
-        <v>-0.154368173690572</v>
+        <v>-0.338607640801414</v>
       </c>
       <c r="M22">
-        <v>0.0031312043728015</v>
+        <v>-0.114790920764134</v>
       </c>
       <c r="N22">
-        <v>-0.726855175195914</v>
+        <v>-2.16411425154567</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1790083.556</v>
@@ -2110,19 +2113,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2145,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.911214721029231</v>
+        <v>0.99987180853083</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.764150943396226</v>
+        <v>0.75</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.505</v>
+        <v>10.1</v>
       </c>
       <c r="K23">
-        <v>-0.0989167230873393</v>
+        <v>-0.249895727848101</v>
       </c>
       <c r="L23">
-        <v>-0.177314109153589</v>
+        <v>-0.338049849558224</v>
       </c>
       <c r="M23">
-        <v>0.0055864637137369</v>
+        <v>-0.169840690202673</v>
       </c>
       <c r="N23">
-        <v>-0.941615641002754</v>
+        <v>-2.47421512720892</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1790083.556</v>
@@ -2181,19 +2184,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2216,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.230830903134821</v>
+        <v>0.831412013577655</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.688679245283019</v>
+        <v>0.648148148148148</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="K24">
-        <v>0.0007494870041039</v>
+        <v>-0.0008746246219533</v>
       </c>
       <c r="L24">
-        <v>-0.0008176701303983</v>
+        <v>-0.0024588320353187</v>
       </c>
       <c r="M24">
-        <v>0.0024882498909038</v>
+        <v>0.0007520988152755</v>
       </c>
       <c r="N24">
-        <v>1.38793889648883</v>
+        <v>-1.59022658536979</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1790083.556</v>
@@ -2252,19 +2255,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,37 +2287,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.238002406481753</v>
+        <v>0.841455894770663</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.980952380952381</v>
+        <v>0.94392523364486</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.36</v>
+        <v>3.65</v>
       </c>
       <c r="K25">
-        <v>0.0632611668185962</v>
+        <v>-0.076602930363133</v>
       </c>
       <c r="L25">
-        <v>-0.09389083061605701</v>
+        <v>-0.23645907650057</v>
       </c>
       <c r="M25">
-        <v>0.171405488559215</v>
+        <v>0.0303634881386569</v>
       </c>
       <c r="N25">
-        <v>1.88277282198203</v>
+        <v>-2.09871042090775</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1790083.556</v>
@@ -2323,19 +2326,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,31 +2358,31 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>1.41933777697556E-06</v>
+        <v>1.88984917048884E-07</v>
       </c>
       <c r="G26">
-        <v>0.0408163265306122</v>
+        <v>0.043010752688172</v>
       </c>
       <c r="H26">
-        <v>0.683673469387755</v>
+        <v>0.698924731182796</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.09925271739130451</v>
+        <v>-0.125951090756204</v>
       </c>
       <c r="L26">
-        <v>-0.143008367971835</v>
+        <v>-0.188653836059857</v>
       </c>
       <c r="M26">
-        <v>-0.0582517345891404</v>
+        <v>-0.0743923218432007</v>
       </c>
       <c r="N26">
-        <v>-8.271059782608701</v>
+        <v>-13.9945656395782</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
@@ -2394,19 +2397,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,31 +2429,31 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.011180236827664</v>
+        <v>0.0747299028785</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.900709219858156</v>
+        <v>0.901408450704225</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>8.24</v>
+        <v>7.925</v>
       </c>
       <c r="K27">
-        <v>-0.0778001762614705</v>
+        <v>-0.051957475786925</v>
       </c>
       <c r="L27">
-        <v>-0.156160863514898</v>
+        <v>-0.10534453394096</v>
       </c>
       <c r="M27">
-        <v>-0.0149047287310152</v>
+        <v>0.008292094861185199</v>
       </c>
       <c r="N27">
-        <v>-0.944176896377069</v>
+        <v>-0.6556148364280761</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
@@ -2465,19 +2468,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>0.508276050851193</v>
+        <v>0.72638190856427</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2512,22 +2515,22 @@
         <v>0.024</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>-0.000166306309346</v>
       </c>
       <c r="L28">
-        <v>-0.0003973681992212</v>
+        <v>-0.0004978984055014</v>
       </c>
       <c r="M28">
-        <v>0.0003219163712053</v>
+        <v>0.0001996315291865</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-0.692942955608477</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1790083.556</v>
@@ -2536,19 +2539,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,37 +2571,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.999993004463138</v>
+        <v>0.99999999788252</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0071942446043165</v>
       </c>
       <c r="H29">
-        <v>0.820143884892086</v>
+        <v>0.805755395683453</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="K29">
-        <v>-32.4392553880894</v>
+        <v>-45.4204677096303</v>
       </c>
       <c r="L29">
-        <v>-51.6788901850293</v>
+        <v>-60.2481758879436</v>
       </c>
       <c r="M29">
-        <v>-17.9029649288568</v>
+        <v>-29.2564209008648</v>
       </c>
       <c r="N29">
-        <v>-7.45730008921596</v>
+        <v>-12.2758020836839</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1790083.556</v>
@@ -2607,19 +2610,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,13 +2642,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.210478750094406</v>
+        <v>0.176991683206674</v>
       </c>
       <c r="G30">
-        <v>0.610294117647059</v>
+        <v>0.6</v>
       </c>
       <c r="H30">
-        <v>0.323529411764706</v>
+        <v>0.311111111111111</v>
       </c>
       <c r="I30">
         <v>6</v>
@@ -2669,7 +2672,7 @@
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1790083.556</v>
@@ -2678,19 +2681,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,37 +2713,37 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.89530330946814</v>
+        <v>0.91904389189243</v>
       </c>
       <c r="G31">
-        <v>0.0227272727272727</v>
+        <v>0.0215827338129496</v>
       </c>
       <c r="H31">
-        <v>0.310606060606061</v>
+        <v>0.294964028776978</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
       <c r="K31">
-        <v>-0.0002490623934538</v>
+        <v>-0.0002775825790545</v>
       </c>
       <c r="L31">
-        <v>-0.0005746255043988</v>
+        <v>-0.000572134607024</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-1.60685415131485</v>
+        <v>-1.85055052703054</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1790083.556</v>
@@ -2749,19 +2752,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,37 +2784,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.999771992658738</v>
+        <v>0.999998024113832</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.833333333333333</v>
+        <v>0.841726618705036</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>10.5751</v>
+        <v>10.3</v>
       </c>
       <c r="K32">
-        <v>-0.140095890410959</v>
+        <v>-0.188968971332606</v>
       </c>
       <c r="L32">
-        <v>-0.200311495693007</v>
+        <v>-0.252750415702662</v>
       </c>
       <c r="M32">
-        <v>-0.074209816349873</v>
+        <v>-0.1301903822095</v>
       </c>
       <c r="N32">
-        <v>-1.32477130628513</v>
+        <v>-1.83465020711268</v>
       </c>
       <c r="O32" t="s">
         <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q32">
         <v>1790083.556</v>
@@ -2820,19 +2823,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,37 +2855,37 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.004108746872128</v>
+        <v>0.012947789082004</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.532374100719424</v>
+        <v>0.503597122302158</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="K33">
-        <v>-0.0143686073957515</v>
+        <v>-0.0112384615384618</v>
       </c>
       <c r="L33">
-        <v>-0.0252721658822468</v>
+        <v>-0.0198499633468793</v>
       </c>
       <c r="M33">
-        <v>-0.0056353232243188</v>
+        <v>-0.0028264063755004</v>
       </c>
       <c r="N33">
-        <v>-0.225566835098139</v>
+        <v>-0.176705370101601</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33">
         <v>1790083.556</v>
@@ -2891,16 +2894,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,7 +2923,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.999993004463138</v>
+        <v>0.999998799399477</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2932,25 +2935,25 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>10.834</v>
+        <v>10.336</v>
       </c>
       <c r="K34">
-        <v>-0.167862894814724</v>
+        <v>-0.187080454373175</v>
       </c>
       <c r="L34">
-        <v>-0.224909731120368</v>
+        <v>-0.252151686583284</v>
       </c>
       <c r="M34">
-        <v>-0.105430784175879</v>
+        <v>-0.127528503794829</v>
       </c>
       <c r="N34">
-        <v>-1.54940829624076</v>
+        <v>-1.80998891614913</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1790083.556</v>
@@ -2959,19 +2962,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,37 +2994,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.999998703578735</v>
+        <v>0.999999292461595</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.776978417266187</v>
+        <v>0.7841726618705041</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="K35">
-        <v>-0.200372533950999</v>
+        <v>-0.206869674794643</v>
       </c>
       <c r="L35">
-        <v>-0.26765056742452</v>
+        <v>-0.26723020709773</v>
       </c>
       <c r="M35">
-        <v>-0.149267620358234</v>
+        <v>-0.154783643413882</v>
       </c>
       <c r="N35">
-        <v>-1.83828012799081</v>
+        <v>-2.02813406661415</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1790083.556</v>
@@ -3030,19 +3033,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,37 +3065,37 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.316791322539459</v>
+        <v>0.339216498188483</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.58273381294964</v>
+        <v>0.575539568345324</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
       <c r="K36">
         <v>0.0001660990851968</v>
       </c>
       <c r="L36">
-        <v>-0.0006701175869123</v>
+        <v>-0.0006634877384196</v>
       </c>
       <c r="M36">
-        <v>0.0010377885002636</v>
+        <v>0.0010023457447448</v>
       </c>
       <c r="N36">
-        <v>0.301998336721605</v>
+        <v>0.313394500371477</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1790083.556</v>
@@ -3101,19 +3104,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,31 +3136,31 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.475002744798745</v>
+        <v>0.466680033769173</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.9710144927536229</v>
+        <v>0.949275362318841</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.475</v>
+        <v>3.365</v>
       </c>
       <c r="K37">
-        <v>0.007944535073409399</v>
+        <v>0.0033224681625227</v>
       </c>
       <c r="L37">
-        <v>-0.0856998749940264</v>
+        <v>-0.07636886351141101</v>
       </c>
       <c r="M37">
-        <v>0.0967855274134089</v>
+        <v>0.0849768291629308</v>
       </c>
       <c r="N37">
-        <v>0.228619714342719</v>
+        <v>0.09873605237809049</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
@@ -3172,19 +3175,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3192,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -3204,31 +3207,31 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.0025627511565648</v>
+        <v>3.98697755940036E-05</v>
       </c>
       <c r="G38">
-        <v>0.0102564102564103</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H38">
-        <v>0.261538461538462</v>
+        <v>0.663636363636364</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0.023</v>
+        <v>1.1</v>
       </c>
       <c r="K38">
-        <v>0.0003302441229656</v>
+        <v>-0.0586156588474217</v>
       </c>
       <c r="L38">
-        <v>0.0001428128932271</v>
+        <v>-0.102450332295981</v>
       </c>
       <c r="M38">
-        <v>0.0005009441915757999</v>
+        <v>-0.035011599922615</v>
       </c>
       <c r="N38">
-        <v>1.4358440128941</v>
+        <v>-5.32869625885652</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
@@ -3243,19 +3246,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3263,7 +3266,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -3275,37 +3278,37 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.603852156317384</v>
+        <v>0.009802054285182899</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.7814207650273221</v>
+        <v>0.8963414634146341</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>400</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K39">
-        <v>-1.06443434166812</v>
+        <v>-0.06605940934065931</v>
       </c>
       <c r="L39">
-        <v>-8.795359006573531</v>
+        <v>-0.123822581273443</v>
       </c>
       <c r="M39">
-        <v>3.89461828555506</v>
+        <v>-0.0147146058245227</v>
       </c>
       <c r="N39">
-        <v>-0.266108585417031</v>
+        <v>-0.80560255293487</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1790083.556</v>
@@ -3314,19 +3317,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3334,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -3343,40 +3346,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40">
-        <v>0.995821867606726</v>
+        <v>0.254981009950756</v>
       </c>
       <c r="G40">
-        <v>0.542105263157895</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.352631578947368</v>
+        <v>0.261538461538462</v>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.0051223776223776</v>
+        <v>0.024</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>7.710576314122871E-05</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-0.0001495657476822</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.0002482823584683</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.321274013088453</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q40">
         <v>1790083.556</v>
@@ -3385,19 +3388,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3405,7 +3408,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -3417,37 +3420,37 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.99999999991906</v>
+        <v>0.967477644713345</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0051282051282051</v>
       </c>
       <c r="H41">
-        <v>0.783333333333333</v>
+        <v>0.78974358974359</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>11.1935</v>
+        <v>361</v>
       </c>
       <c r="K41">
-        <v>-0.180990662438907</v>
+        <v>-7.58381679389313</v>
       </c>
       <c r="L41">
-        <v>-0.232331996051723</v>
+        <v>-14.5499725208946</v>
       </c>
       <c r="M41">
-        <v>-0.135730740285818</v>
+        <v>-1.0061453817626</v>
       </c>
       <c r="N41">
-        <v>-1.61692645230631</v>
+        <v>-2.10078027531666</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1790083.556</v>
@@ -3456,19 +3459,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3476,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3485,40 +3488,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.999999999999846</v>
+        <v>0.99079682235598</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.5473684210526319</v>
       </c>
       <c r="H42">
-        <v>0.974358974358974</v>
+        <v>0.347368421052632</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J42">
-        <v>11.332</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>-0.18997198275862</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-0.246070179319772</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>-0.155347519093339</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>-1.67642060323526</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q42">
         <v>1790083.556</v>
@@ -3527,19 +3530,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,7 +3550,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3559,37 +3562,37 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.0074214439641755</v>
+        <v>0.999999999998604</v>
       </c>
       <c r="G43">
-        <v>0.0486486486486487</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.502702702702703</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.053</v>
+        <v>10.745</v>
       </c>
       <c r="K43">
-        <v>0.0008958969518742</v>
+        <v>-0.200487823545449</v>
       </c>
       <c r="L43">
-        <v>0.0003723969435432</v>
+        <v>-0.257362197315793</v>
       </c>
       <c r="M43">
-        <v>0.0015520882081387</v>
+        <v>-0.162676903433981</v>
       </c>
       <c r="N43">
-        <v>1.69037160730987</v>
+        <v>-1.86587085663517</v>
       </c>
       <c r="O43" t="s">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1790083.556</v>
@@ -3598,19 +3601,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3618,49 +3621,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.0866948892468105</v>
+        <v>0.000114561817085</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.907216494845361</v>
+        <v>0.514450867052023</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>3.195</v>
+        <v>6.4</v>
       </c>
       <c r="K44">
-        <v>0.0396932259538497</v>
+        <v>-0.0169664617821873</v>
       </c>
       <c r="L44">
-        <v>-0.0069145568653859</v>
+        <v>-0.0265665279858325</v>
       </c>
       <c r="M44">
-        <v>0.07754311825446709</v>
+        <v>-0.009642042605256199</v>
       </c>
       <c r="N44">
-        <v>1.24235448994835</v>
+        <v>-0.265100965346676</v>
       </c>
       <c r="O44" t="s">
         <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q44">
         <v>1790083.556</v>
@@ -3669,19 +3672,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3689,49 +3689,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.12</v>
+        <v>11.125</v>
       </c>
       <c r="K45">
-        <v>0.0011631767396858</v>
+        <v>-0.216453006329114</v>
       </c>
       <c r="L45">
-        <v>-0.0276740748265223</v>
+        <v>-0.274808648336574</v>
       </c>
       <c r="M45">
-        <v>0.0172694960069751</v>
+        <v>-0.173169342194018</v>
       </c>
       <c r="N45">
-        <v>0.9693139497382059</v>
+        <v>-1.94564500071114</v>
       </c>
       <c r="O45" t="s">
         <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q45">
         <v>1790083.556</v>
@@ -3740,16 +3740,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3757,49 +3760,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.59675202974633</v>
+        <v>0.11105346902891</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.0053763440860215</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.5053763440860219</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>70.67</v>
+        <v>0.053</v>
       </c>
       <c r="K46">
-        <v>0.559673922639789</v>
+        <v>0.0003327011499816</v>
       </c>
       <c r="L46">
-        <v>-13.8651642541074</v>
+        <v>-0.0001425514474957</v>
       </c>
       <c r="M46">
-        <v>8.722915946241709</v>
+        <v>0.0008993418631959</v>
       </c>
       <c r="N46">
-        <v>0.791954043639152</v>
+        <v>0.627738018833222</v>
       </c>
       <c r="O46" t="s">
         <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q46">
         <v>1790083.556</v>
@@ -3808,16 +3811,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3825,49 +3831,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>39</v>
       </c>
       <c r="F47">
-        <v>0.110335680959923</v>
+        <v>0.341938522485024</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.907216494845361</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3.527</v>
+        <v>3.205</v>
       </c>
       <c r="K47">
-        <v>-0.133474575025118</v>
+        <v>0.0109984354950958</v>
       </c>
       <c r="L47">
-        <v>-0.773088606879072</v>
+        <v>-0.0375025180208369</v>
       </c>
       <c r="M47">
-        <v>0.11047384658211</v>
+        <v>0.0593658682997152</v>
       </c>
       <c r="N47">
-        <v>-3.78436560887776</v>
+        <v>0.343164914043551</v>
       </c>
       <c r="O47" t="s">
         <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q47">
         <v>1790083.556</v>
@@ -3876,16 +3882,19 @@
         <v>5500787.423</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,7 +3905,7 @@
         <v>36</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3905,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="F48">
-        <v>0.570986171506239</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3917,25 +3926,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="K48">
-        <v>0.0009838383838383</v>
+        <v>0.0046649136155</v>
       </c>
       <c r="L48">
-        <v>-0.0039113084042586</v>
+        <v>-0.0202240481177534</v>
       </c>
       <c r="M48">
-        <v>0.0043236449167366</v>
+        <v>0.0172694960069751</v>
       </c>
       <c r="N48">
-        <v>0.886340886340887</v>
+        <v>4.2408305595455</v>
       </c>
       <c r="O48" t="s">
         <v>42</v>
       </c>
       <c r="P48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q48">
         <v>1790083.556</v>
@@ -3944,16 +3953,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3964,7 +3973,7 @@
         <v>37</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3973,7 +3982,7 @@
         <v>39</v>
       </c>
       <c r="F49">
-        <v>0.639742606431872</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3985,19 +3994,19 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>66.265</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.368939393939394</v>
+        <v>-0.302610240493277</v>
       </c>
       <c r="L49">
-        <v>-1.84941716329183</v>
+        <v>-15.9294771201161</v>
       </c>
       <c r="M49">
-        <v>2.18355411927556</v>
+        <v>8.722915946241709</v>
       </c>
       <c r="N49">
-        <v>0.556763591548169</v>
+        <v>-0.5217417939539249</v>
       </c>
       <c r="O49" t="s">
         <v>42</v>
@@ -4012,16 +4021,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4032,7 +4041,7 @@
         <v>38</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4041,7 +4050,7 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <v>0.141565435331173</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4053,25 +4062,25 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>3.5435</v>
+        <v>3.45</v>
       </c>
       <c r="K50">
-        <v>-0.0284083333333333</v>
+        <v>-0.674584855681403</v>
       </c>
       <c r="L50">
-        <v>-0.09979287094810731</v>
+        <v>-0.980866725169072</v>
       </c>
       <c r="M50">
-        <v>0.0401458973891767</v>
+        <v>-0.145230997501129</v>
       </c>
       <c r="N50">
-        <v>-0.801702648041014</v>
+        <v>-19.5531842226494</v>
       </c>
       <c r="O50" t="s">
         <v>42</v>
       </c>
       <c r="P50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q50">
         <v>1790083.556</v>
@@ -4080,16 +4089,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4100,46 +4109,46 @@
         <v>36</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.111</v>
+        <v>0.1125</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>-0.0005964888405008</v>
       </c>
       <c r="L51">
-        <v>-0.0026516186589428</v>
+        <v>-0.0051403561166299</v>
       </c>
       <c r="M51">
-        <v>0.0025632715541077</v>
+        <v>0.0036485168191228</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>-0.5302123026673909</v>
       </c>
       <c r="O51" t="s">
         <v>42</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q51">
         <v>1790083.556</v>
@@ -4148,16 +4157,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4168,7 +4177,7 @@
         <v>37</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4177,37 +4186,37 @@
         <v>39</v>
       </c>
       <c r="F52">
-        <v>0.597831965806486</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>67</v>
+        <v>66.265</v>
       </c>
       <c r="K52">
-        <v>0.248469387755102</v>
+        <v>-1.346555</v>
       </c>
       <c r="L52">
-        <v>-0.892604832772823</v>
+        <v>-3.36947793980731</v>
       </c>
       <c r="M52">
-        <v>0.722406201496954</v>
+        <v>0.599393693405615</v>
       </c>
       <c r="N52">
-        <v>0.370849832470302</v>
+        <v>-2.03207575643251</v>
       </c>
       <c r="O52" t="s">
         <v>42</v>
       </c>
       <c r="P52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q52">
         <v>1790083.556</v>
@@ -4216,16 +4225,16 @@
         <v>5500787.423</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4236,64 +4245,268 @@
         <v>38</v>
       </c>
       <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3.4885</v>
+      </c>
+      <c r="K53">
+        <v>-0.0524596050269299</v>
+      </c>
+      <c r="L53">
+        <v>-0.224000669900011</v>
+      </c>
+      <c r="M53">
+        <v>0.0049274075136929</v>
+      </c>
+      <c r="N53">
+        <v>-1.50378687192002</v>
+      </c>
+      <c r="O53" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53">
+        <v>1790083.556</v>
+      </c>
+      <c r="R53">
+        <v>5500787.423</v>
+      </c>
+      <c r="S53" t="s">
+        <v>56</v>
+      </c>
+      <c r="T53" t="s">
+        <v>57</v>
+      </c>
+      <c r="U53" t="s">
+        <v>58</v>
+      </c>
+      <c r="V53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
         <v>15</v>
       </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53">
-        <v>0.114219904494338</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>3.5435</v>
-      </c>
-      <c r="K53">
-        <v>-0.0226694389275074</v>
-      </c>
-      <c r="L53">
-        <v>-0.04519996117544</v>
-      </c>
-      <c r="M53">
-        <v>0.014095650637463</v>
-      </c>
-      <c r="N53">
-        <v>-0.639747112389091</v>
-      </c>
-      <c r="O53" t="s">
-        <v>42</v>
-      </c>
-      <c r="P53" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q53">
-        <v>1790083.556</v>
-      </c>
-      <c r="R53">
-        <v>5500787.423</v>
-      </c>
-      <c r="S53" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" t="s">
-        <v>56</v>
-      </c>
-      <c r="U53" t="s">
-        <v>57</v>
-      </c>
-      <c r="V53" t="s">
-        <v>58</v>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.11</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>-0.0025367791374542</v>
+      </c>
+      <c r="M54">
+        <v>0.0018583528523127</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54">
+        <v>1790083.556</v>
+      </c>
+      <c r="R54">
+        <v>5500787.423</v>
+      </c>
+      <c r="S54" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" t="s">
+        <v>57</v>
+      </c>
+      <c r="U54" t="s">
+        <v>58</v>
+      </c>
+      <c r="V54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>0.480241343049765</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>63.53</v>
+      </c>
+      <c r="K55">
+        <v>-0.024880790190736</v>
+      </c>
+      <c r="L55">
+        <v>-1.18693898284011</v>
+      </c>
+      <c r="M55">
+        <v>0.666254023852594</v>
+      </c>
+      <c r="N55">
+        <v>-0.0391638441535275</v>
+      </c>
+      <c r="O55" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q55">
+        <v>1790083.556</v>
+      </c>
+      <c r="R55">
+        <v>5500787.423</v>
+      </c>
+      <c r="S55" t="s">
+        <v>56</v>
+      </c>
+      <c r="T55" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="V55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>0.037412303551542</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3.527</v>
+      </c>
+      <c r="K56">
+        <v>-0.0284083333333333</v>
+      </c>
+      <c r="L56">
+        <v>-0.0949372210516567</v>
+      </c>
+      <c r="M56">
+        <v>-0.0083063805030647</v>
+      </c>
+      <c r="N56">
+        <v>-0.805453170777809</v>
+      </c>
+      <c r="O56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56">
+        <v>1790083.556</v>
+      </c>
+      <c r="R56">
+        <v>5500787.423</v>
+      </c>
+      <c r="S56" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" t="s">
+        <v>58</v>
+      </c>
+      <c r="V56" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
